--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenSource\RetroAdventureCreator\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DD27F6-6068-4BE9-B51B-4503BC291548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24495EA7-F941-47CB-876E-247A7BAEA67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{62DA7D8D-EBD5-46FB-9AA7-4BC68A501710}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Messages</t>
   </si>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>Settings</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>ComponentsIndexes</t>
+  </si>
+  <si>
+    <t>ComponentsData</t>
+  </si>
+  <si>
+    <t>Flags (no usado)</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Flag bits</t>
+  </si>
+  <si>
+    <t>synonym bytes splitted by '|'</t>
+  </si>
+  <si>
+    <t>Mesage text bytes</t>
   </si>
 </sst>
 </file>
@@ -121,12 +145,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,8 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,114 +489,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF8258B-22E1-474C-9D3D-4AF667FCF792}">
-  <dimension ref="B7:D17"/>
+  <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" customWidth="1"/>
-    <col min="4" max="4" width="39.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>